--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.687967</v>
       </c>
       <c r="I2">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N2">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O2">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P2">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q2">
-        <v>7.093575604389555</v>
+        <v>8.929849727507332</v>
       </c>
       <c r="R2">
-        <v>63.842180439506</v>
+        <v>80.368647547566</v>
       </c>
       <c r="S2">
-        <v>0.1263582807899031</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="T2">
-        <v>0.1395480005755411</v>
+        <v>0.1644242630434466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.687967</v>
       </c>
       <c r="I3">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P3">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q3">
         <v>0.5951134699440001</v>
       </c>
       <c r="R3">
-        <v>5.356021229496001</v>
+        <v>5.356021229496</v>
       </c>
       <c r="S3">
-        <v>0.01060079135415217</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="T3">
-        <v>0.0117073390738047</v>
+        <v>0.01095775368104481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.687967</v>
       </c>
       <c r="I4">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N4">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O4">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P4">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q4">
-        <v>18.17422420807467</v>
+        <v>26.45413935659833</v>
       </c>
       <c r="R4">
-        <v>163.568017872672</v>
+        <v>238.087254209385</v>
       </c>
       <c r="S4">
-        <v>0.3237385281692754</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="T4">
-        <v>0.3575314892927924</v>
+        <v>0.487096927819354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.687967</v>
       </c>
       <c r="I5">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N5">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O5">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P5">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q5">
-        <v>3.351290092603834</v>
+        <v>1.480078329798833</v>
       </c>
       <c r="R5">
-        <v>20.107740555623</v>
+        <v>8.880469978793</v>
       </c>
       <c r="S5">
-        <v>0.05969672815887286</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="T5">
-        <v>0.04395205444600606</v>
+        <v>0.01816833773242602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.687967</v>
       </c>
       <c r="I6">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N6">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O6">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P6">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q6">
-        <v>14.962414723613</v>
+        <v>17.34398395077755</v>
       </c>
       <c r="R6">
-        <v>134.661732512517</v>
+        <v>156.095855556998</v>
       </c>
       <c r="S6">
-        <v>0.2665263763131445</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="T6">
-        <v>0.2943473327006169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.062095</v>
-      </c>
-      <c r="H7">
-        <v>0.12419</v>
-      </c>
-      <c r="I7">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J7">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>30.93277266666666</v>
-      </c>
-      <c r="N7">
-        <v>92.79831799999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1605730793731885</v>
-      </c>
-      <c r="P7">
-        <v>0.1647388399493432</v>
-      </c>
-      <c r="Q7">
-        <v>1.920770518736667</v>
-      </c>
-      <c r="R7">
-        <v>11.52462311242</v>
-      </c>
-      <c r="S7">
-        <v>0.0342147985832854</v>
-      </c>
-      <c r="T7">
-        <v>0.02519083937380202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.062095</v>
-      </c>
-      <c r="H8">
-        <v>0.12419</v>
-      </c>
-      <c r="I8">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J8">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.595096</v>
-      </c>
-      <c r="N8">
-        <v>7.785288000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.01347123196744937</v>
-      </c>
-      <c r="P8">
-        <v>0.01382071724394339</v>
-      </c>
-      <c r="Q8">
-        <v>0.16114248612</v>
-      </c>
-      <c r="R8">
-        <v>0.9668549167200002</v>
-      </c>
-      <c r="S8">
-        <v>0.002870440613297202</v>
-      </c>
-      <c r="T8">
-        <v>0.002113378170138691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.062095</v>
-      </c>
-      <c r="H9">
-        <v>0.12419</v>
-      </c>
-      <c r="I9">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J9">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>79.25187200000001</v>
-      </c>
-      <c r="N9">
-        <v>237.755616</v>
-      </c>
-      <c r="O9">
-        <v>0.411399174275867</v>
-      </c>
-      <c r="P9">
-        <v>0.4220721368169787</v>
-      </c>
-      <c r="Q9">
-        <v>4.92114499184</v>
-      </c>
-      <c r="R9">
-        <v>29.52686995104001</v>
-      </c>
-      <c r="S9">
-        <v>0.08766064610659156</v>
-      </c>
-      <c r="T9">
-        <v>0.06454064752418631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.062095</v>
-      </c>
-      <c r="H10">
-        <v>0.12419</v>
-      </c>
-      <c r="I10">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J10">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.6138845</v>
-      </c>
-      <c r="N10">
-        <v>29.227769</v>
-      </c>
-      <c r="O10">
-        <v>0.07586117355389273</v>
-      </c>
-      <c r="P10">
-        <v>0.05188616413680444</v>
-      </c>
-      <c r="Q10">
-        <v>0.9074491580275001</v>
-      </c>
-      <c r="R10">
-        <v>3.629796632110001</v>
-      </c>
-      <c r="S10">
-        <v>0.01616444539501987</v>
-      </c>
-      <c r="T10">
-        <v>0.007934109690798384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.062095</v>
-      </c>
-      <c r="H11">
-        <v>0.12419</v>
-      </c>
-      <c r="I11">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J11">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>65.246217</v>
-      </c>
-      <c r="N11">
-        <v>195.738651</v>
-      </c>
-      <c r="O11">
-        <v>0.3386953408296026</v>
-      </c>
-      <c r="P11">
-        <v>0.3474821418529304</v>
-      </c>
-      <c r="Q11">
-        <v>4.051463844615</v>
-      </c>
-      <c r="R11">
-        <v>24.30878306769</v>
-      </c>
-      <c r="S11">
-        <v>0.0721689645164581</v>
-      </c>
-      <c r="T11">
-        <v>0.05313480915231343</v>
+        <v>0.3193527177237286</v>
       </c>
     </row>
   </sheetData>
